--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/20/seed4/result_data_RandomForest.xlsx
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.33809999999999</v>
+        <v>16.4295</v>
       </c>
     </row>
     <row r="7">
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.58740000000001</v>
+        <v>-12.6403</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.7762</v>
+        <v>-21.7488</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.8519</v>
+        <v>-10.7328</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.0848</v>
+        <v>-22.19370000000001</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.8356</v>
+        <v>-13.6705</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -695,12 +695,12 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.3661</v>
+        <v>16.59069999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.53029999999998</v>
+        <v>-21.44299999999998</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.25310000000001</v>
+        <v>-22.25190000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.85060000000001</v>
+        <v>-12.09870000000001</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.57569999999999</v>
+        <v>-21.54089999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -870,13 +870,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.58519999999998</v>
+        <v>-21.57199999999998</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.7664</v>
+        <v>-12.569</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -887,13 +887,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.53209999999998</v>
+        <v>-21.57989999999998</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.0814</v>
+        <v>-11.9041</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -916,18 +916,18 @@
         <v>-7.75</v>
       </c>
       <c r="E28" t="n">
-        <v>16.10779999999999</v>
+        <v>16.03949999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.80499999999997</v>
+        <v>-20.66989999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.3888</v>
+        <v>-11.2421</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.07370000000002</v>
+        <v>17.02770000000002</v>
       </c>
     </row>
     <row r="34">
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-21.31309999999998</v>
+        <v>-21.37999999999998</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1035,12 +1035,12 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.5377</v>
+        <v>16.54360000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.98919999999997</v>
+        <v>-20.73769999999998</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.59550000000001</v>
+        <v>-12.44720000000001</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1080,13 +1080,13 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-13.08529999999999</v>
+        <v>-12.436</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.42629999999999</v>
+        <v>16.3482</v>
       </c>
     </row>
     <row r="39">
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.23490000000001</v>
+        <v>17.24410000000002</v>
       </c>
     </row>
     <row r="44">
@@ -1188,12 +1188,12 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.7026</v>
+        <v>16.7109</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.46999999999999</v>
+        <v>-21.53619999999999</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.28999999999999</v>
+        <v>16.43609999999999</v>
       </c>
     </row>
     <row r="46">
@@ -1233,13 +1233,13 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.1716</v>
+        <v>-12.45949999999999</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.16799999999998</v>
+        <v>16.26199999999999</v>
       </c>
     </row>
     <row r="48">
@@ -1301,13 +1301,13 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.0881</v>
+        <v>-11.8419</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.24000000000001</v>
+        <v>17.18670000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.1917</v>
+        <v>-11.342</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1358,18 +1358,18 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.47270000000001</v>
+        <v>16.49010000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.44729999999999</v>
+        <v>-22.4634</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.16869999999999</v>
+        <v>-13.64239999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.26140000000001</v>
+        <v>-22.34950000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.6504</v>
+        <v>16.6968</v>
       </c>
     </row>
     <row r="58">
@@ -1494,7 +1494,7 @@
         <v>-8.5</v>
       </c>
       <c r="E62" t="n">
-        <v>16.43890000000001</v>
+        <v>16.45529999999999</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>18.58220000000001</v>
+        <v>18.41110000000002</v>
       </c>
     </row>
     <row r="64">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>17.01380000000002</v>
+        <v>17.03750000000002</v>
       </c>
     </row>
     <row r="68">
@@ -1601,13 +1601,13 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.7192</v>
+        <v>-21.7218</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.8833</v>
+        <v>-11.0469</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1624,13 +1624,13 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.3033</v>
+        <v>-12.0214</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.43900000000001</v>
+        <v>17.42370000000002</v>
       </c>
     </row>
     <row r="71">
@@ -1720,13 +1720,13 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.31459999999999</v>
+        <v>-19.5306</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-13.07640000000001</v>
+        <v>-13.00500000000001</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.09499999999997</v>
+        <v>-20.23409999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1811,18 +1811,18 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-14.29309999999999</v>
+        <v>-14.0082</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.67580000000001</v>
+        <v>16.5392</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.18250000000001</v>
+        <v>-22.2163</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.1071</v>
+        <v>-21.9295</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.73999999999999</v>
+        <v>-13.1138</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.3241</v>
+        <v>16.31529999999999</v>
       </c>
     </row>
     <row r="89">
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.77699999999998</v>
+        <v>-20.62279999999998</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2032,7 +2032,7 @@
         <v>4.26</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.4912</v>
+        <v>-10.5349</v>
       </c>
       <c r="D94" t="n">
         <v>-5.14</v>
@@ -2072,12 +2072,12 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.06599999999998</v>
+        <v>16.20799999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-22.0504</v>
+        <v>-22.1478</v>
       </c>
       <c r="B97" t="n">
         <v>5.08</v>
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.6126</v>
+        <v>16.71690000000001</v>
       </c>
     </row>
     <row r="100">
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-11.7644</v>
+        <v>-11.6524</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.64850000000001</v>
+        <v>-12.29350000000001</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
